--- a/Docs/计分组/20150123模拟计分表.xlsx
+++ b/Docs/计分组/20150123模拟计分表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>额外加分扣分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务发布（3）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -682,57 +678,57 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -785,75 +781,75 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -870,22 +866,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -907,58 +902,55 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/计分组/20150123模拟计分表.xlsx
+++ b/Docs/计分组/20150123模拟计分表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="上午" sheetId="1" r:id="rId1"/>
@@ -120,39 +120,44 @@
     <t>翁娇娇</t>
   </si>
   <si>
-    <t>马越</t>
-  </si>
-  <si>
-    <t>毛潇</t>
+    <t>李新年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王艺玮 </t>
+  </si>
+  <si>
+    <t>吴发明</t>
+  </si>
+  <si>
+    <t>收尾（2/3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次汇报（25/5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次汇报（25/5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙文凯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关鑫</t>
-  </si>
-  <si>
-    <t>李新年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王艺玮 </t>
-  </si>
-  <si>
-    <t>吴发明</t>
-  </si>
-  <si>
-    <t>李江洋</t>
-  </si>
-  <si>
-    <t>收尾（2/3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三次汇报（25/5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四次汇报（25/5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李江阳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -173,6 +178,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -273,13 +279,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -618,26 +624,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,54 +687,54 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16">
-      <c r="A6" s="5" t="s">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -747,24 +753,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,16 +790,16 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -802,54 +808,54 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="5" t="s">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -866,21 +872,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,59 +909,66 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="5" t="s">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
